--- a/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_ccaa.xlsx
+++ b/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_ccaa.xlsx
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.209</v>
+        <v>0.18616</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.209</v>
+        <v>0.18599</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.219</v>
+        <v>0.20461</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.248</v>
+        <v>0.22108</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.26</v>
+        <v>0.22889</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.241</v>
+        <v>0.20063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.259</v>
+        <v>0.23031</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.247</v>
+        <v>0.21167</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.22398</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.253</v>
+        <v>0.23698</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.244</v>
+        <v>0.21439</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.2627</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.263</v>
+        <v>0.219</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.273</v>
+        <v>0.24329</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.249</v>
+        <v>0.20393</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.249</v>
+        <v>0.20787</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.238</v>
+        <v>0.20283</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.227</v>
+        <v>0.18659</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.242</v>
+        <v>0.20847</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.315</v>
+        <v>0.26376</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.282</v>
+        <v>0.27376</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.251</v>
+        <v>0.2089</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.267</v>
+        <v>0.2043</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.23</v>
+        <v>0.20828</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.246</v>
+        <v>0.20405</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0.263</v>
+        <v>0.24447</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.303</v>
+        <v>0.27593</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.359</v>
+        <v>0.34555</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.333</v>
+        <v>0.3127</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.321</v>
+        <v>0.27338</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.304</v>
+        <v>0.26192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.32</v>
+        <v>0.28826</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0.235</v>
+        <v>0.22127</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>0.232</v>
+        <v>0.21426</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0.261</v>
+        <v>0.26167</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0.33</v>
+        <v>0.31332</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>0.317</v>
+        <v>0.28524</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.259</v>
+        <v>0.24511</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>0.241</v>
+        <v>0.20692</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0.235</v>
+        <v>0.21628</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.297</v>
+        <v>0.22478</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>0.295</v>
+        <v>0.26344</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.28</v>
+        <v>0.23459</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>0.341</v>
+        <v>0.3267</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>0.312</v>
+        <v>0.28926</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>0.308</v>
+        <v>0.26061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.307</v>
+        <v>0.27042</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>0.264</v>
+        <v>0.22961</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.229</v>
+        <v>0.1884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>0.211</v>
+        <v>0.17757</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>0.248</v>
+        <v>0.2331</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>0.281</v>
+        <v>0.23172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>0.295</v>
+        <v>0.24164</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>0.248</v>
+        <v>0.19157</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>0.258</v>
+        <v>0.22639</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>0.226</v>
+        <v>0.17455</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0.23</v>
+        <v>0.18802</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>0.231</v>
+        <v>0.21972</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.236</v>
+        <v>0.20033</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>0.282</v>
+        <v>0.26</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>0.251</v>
+        <v>0.21013</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0.27</v>
+        <v>0.25068</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>0.266</v>
+        <v>0.21477</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>0.246</v>
+        <v>0.22451</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>0.277</v>
+        <v>0.25012</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.268</v>
+        <v>0.24327</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>0.279</v>
+        <v>0.24589</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="C69">
-        <v>0.336</v>
+        <v>0.30311</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>0.331</v>
+        <v>0.2919</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>0.309</v>
+        <v>0.28324</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.336</v>
+        <v>0.3042</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>0.295</v>
+        <v>0.25898</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>0.231</v>
+        <v>0.19685</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>0.223</v>
+        <v>0.20264</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>0.23</v>
+        <v>0.19472</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>0.286</v>
+        <v>0.2491</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>0.288</v>
+        <v>0.25858</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>0.272</v>
+        <v>0.24201</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>0.252</v>
+        <v>0.22153</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>0.247</v>
+        <v>0.22214</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>0.174</v>
+        <v>0.14885</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>0.173</v>
+        <v>0.15075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>0.198</v>
+        <v>0.1707</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.254</v>
+        <v>0.20759</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>0.196</v>
+        <v>0.13324</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>0.187</v>
+        <v>0.14612</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>0.247</v>
+        <v>0.23042</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>0.188</v>
+        <v>0.17023</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>0.228</v>
+        <v>0.19521</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>0.241</v>
+        <v>0.20742</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>0.259</v>
+        <v>0.21076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>0.245</v>
+        <v>0.22225</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.252</v>
+        <v>0.22499</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>0.226</v>
+        <v>0.1963</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>0.226</v>
+        <v>0.19727</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>0.217</v>
+        <v>0.16787</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="C98">
-        <v>0.272</v>
+        <v>0.24554</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>0.274</v>
+        <v>0.23881</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="C100">
-        <v>0.279</v>
+        <v>0.24886</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>0.344</v>
+        <v>0.3092</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="C102">
-        <v>0.326</v>
+        <v>0.30767</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="C103">
-        <v>0.312</v>
+        <v>0.28096</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>0.313</v>
+        <v>0.28408</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>0.291</v>
+        <v>0.25704</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>0.213</v>
+        <v>0.18735</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>0.22</v>
+        <v>0.19969</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>0.236</v>
+        <v>0.20276</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>0.275</v>
+        <v>0.2516</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>0.253</v>
+        <v>0.2161</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>0.216</v>
+        <v>0.1863</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>0.224</v>
+        <v>0.22096</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>0.234</v>
+        <v>0.17663</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="C114">
-        <v>0.243</v>
+        <v>0.20913</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="C115">
-        <v>0.246</v>
+        <v>0.19679</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="C116">
-        <v>0.238</v>
+        <v>0.18693</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <v>0.3</v>
+        <v>0.23062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>0.28</v>
+        <v>0.22051</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="C119">
-        <v>0.272</v>
+        <v>0.20971</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="C120">
-        <v>0.252</v>
+        <v>0.21746</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.263</v>
+        <v>0.23508</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.308</v>
+        <v>0.26486</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="C123">
-        <v>0.294</v>
+        <v>0.25916</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="C124">
-        <v>0.32</v>
+        <v>0.28922</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="C125">
-        <v>0.334</v>
+        <v>0.30675</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="C126">
-        <v>0.331</v>
+        <v>0.3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="C127">
-        <v>0.308</v>
+        <v>0.27447</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>0.32</v>
+        <v>0.28897</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="C129">
-        <v>0.334</v>
+        <v>0.30333</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>17</v>
       </c>
       <c r="C130">
-        <v>0.242</v>
+        <v>0.1849</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="C131">
-        <v>0.241</v>
+        <v>0.19406</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>17</v>
       </c>
       <c r="C132">
-        <v>0.236</v>
+        <v>0.19752</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="C133">
-        <v>0.275</v>
+        <v>0.22071</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="C134">
-        <v>0.261</v>
+        <v>0.21285</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="C135">
-        <v>0.219</v>
+        <v>0.16038</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="C136">
-        <v>0.202</v>
+        <v>0.17007</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="C137">
-        <v>0.231</v>
+        <v>0.18371</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>18</v>
       </c>
       <c r="C138">
-        <v>0.155</v>
+        <v>0.12473</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>18</v>
       </c>
       <c r="C139">
-        <v>0.284</v>
+        <v>0.27134</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>0.246</v>
+        <v>0.14648</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="C141">
-        <v>0.31</v>
+        <v>0.29473</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>0.141</v>
+        <v>0.10773</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="C143">
-        <v>0.218</v>
+        <v>0.22918</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="C144">
-        <v>0.166</v>
+        <v>0.14573</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>18</v>
       </c>
       <c r="C145">
-        <v>0.236</v>
+        <v>0.23118</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>0.211</v>
+        <v>0.15788</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>0.159</v>
+        <v>0.10065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="C148">
-        <v>0.205</v>
+        <v>0.14439</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.279</v>
+        <v>0.09970000000000001</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>19</v>
       </c>
       <c r="C150">
-        <v>0.245</v>
+        <v>0.1573</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="C151">
-        <v>0.295</v>
+        <v>0.19403</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>0.235</v>
+        <v>0.18761</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>19</v>
       </c>
       <c r="C153">
-        <v>0.22</v>
+        <v>0.20066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>

--- a/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_ccaa.xlsx
+++ b/DATOS/PONDERACIONES/PESOS_ALQUILER_EPF/pesos_alquiler_ccaa.xlsx
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.18616</v>
+        <v>0.20107</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.18599</v>
+        <v>0.20064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.20461</v>
+        <v>0.22067</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -449,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.22108</v>
+        <v>0.24409</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.22889</v>
+        <v>0.25058</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.20063</v>
+        <v>0.22749</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.23031</v>
+        <v>0.25131</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.21167</v>
+        <v>0.22991</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.22398</v>
+        <v>0.22522</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0.23698</v>
+        <v>0.24143</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.21439</v>
+        <v>0.21688</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.2627</v>
+        <v>0.26575</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>0.219</v>
+        <v>0.22097</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.24329</v>
+        <v>0.24434</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.20393</v>
+        <v>0.20505</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0.20787</v>
+        <v>0.20992</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.20283</v>
+        <v>0.20701</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.18659</v>
+        <v>0.19689</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.20847</v>
+        <v>0.22521</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.26376</v>
+        <v>0.27447</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.27376</v>
+        <v>0.3184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.2089</v>
+        <v>0.22054</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.2043</v>
+        <v>0.20952</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.20828</v>
+        <v>0.21652</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.20405</v>
+        <v>0.20338</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0.24447</v>
+        <v>0.24511</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.27593</v>
+        <v>0.27683</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.34555</v>
+        <v>0.34574</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.3127</v>
+        <v>0.31293</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.27338</v>
+        <v>0.28585</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.26192</v>
+        <v>0.2754</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.28826</v>
+        <v>0.28844</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0.22127</v>
+        <v>0.22759</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>0.21426</v>
+        <v>0.2302</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0.26167</v>
+        <v>0.27045</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0.31332</v>
+        <v>0.31847</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>0.28524</v>
+        <v>0.29399</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.24511</v>
+        <v>0.26338</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>0.20692</v>
+        <v>0.21322</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0.21628</v>
+        <v>0.22242</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.22478</v>
+        <v>0.24249</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>0.26344</v>
+        <v>0.27299</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.23459</v>
+        <v>0.23717</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>0.3267</v>
+        <v>0.32759</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>0.28926</v>
+        <v>0.29126</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>0.26061</v>
+        <v>0.26417</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.27042</v>
+        <v>0.27299</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>0.22961</v>
+        <v>0.23522</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.1884</v>
+        <v>0.18906</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>0.17757</v>
+        <v>0.17946</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>0.2331</v>
+        <v>0.23537</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>0.23172</v>
+        <v>0.23353</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>0.24164</v>
+        <v>0.2435</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>0.19157</v>
+        <v>0.19518</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>0.22639</v>
+        <v>0.22775</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>0.17455</v>
+        <v>0.17825</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0.18802</v>
+        <v>0.18874</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>0.21972</v>
+        <v>0.22055</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.20033</v>
+        <v>0.21034</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>0.26</v>
+        <v>0.26042</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>0.21013</v>
+        <v>0.2195</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0.25068</v>
+        <v>0.25666</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>0.21477</v>
+        <v>0.21576</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>0.22451</v>
+        <v>0.2308</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="C66">
-        <v>0.25012</v>
+        <v>0.25831</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.24327</v>
+        <v>0.24975</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>0.24589</v>
+        <v>0.25099</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="C69">
-        <v>0.30311</v>
+        <v>0.30892</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>0.2919</v>
+        <v>0.29918</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>0.28324</v>
+        <v>0.29218</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="C72">
-        <v>0.3042</v>
+        <v>0.31081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>0.25898</v>
+        <v>0.26118</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>0.19685</v>
+        <v>0.2027</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="C75">
-        <v>0.20264</v>
+        <v>0.20475</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>0.19472</v>
+        <v>0.20022</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="C77">
-        <v>0.2491</v>
+        <v>0.25612</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="C78">
-        <v>0.25858</v>
+        <v>0.2602</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="C79">
-        <v>0.24201</v>
+        <v>0.24503</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="C80">
-        <v>0.22153</v>
+        <v>0.22628</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>0.22214</v>
+        <v>0.22768</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>0.14885</v>
+        <v>0.15939</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>0.15075</v>
+        <v>0.16425</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>0.1707</v>
+        <v>0.18112</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.20759</v>
+        <v>0.21168</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>0.13324</v>
+        <v>0.15913</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>0.14612</v>
+        <v>0.16049</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="C88">
-        <v>0.23042</v>
+        <v>0.23869</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="C89">
-        <v>0.17023</v>
+        <v>0.1795</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>0.19521</v>
+        <v>0.20051</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>0.20742</v>
+        <v>0.21472</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>0.21076</v>
+        <v>0.21979</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>0.22225</v>
+        <v>0.22508</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>0.22499</v>
+        <v>0.23616</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>0.1963</v>
+        <v>0.20302</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>0.19727</v>
+        <v>0.20655</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>0.16787</v>
+        <v>0.17204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="C98">
-        <v>0.24554</v>
+        <v>0.24934</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>0.23881</v>
+        <v>0.24333</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="C100">
-        <v>0.24886</v>
+        <v>0.25621</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>13</v>
       </c>
       <c r="C101">
-        <v>0.3092</v>
+        <v>0.31261</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="C102">
-        <v>0.30767</v>
+        <v>0.31649</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="C103">
-        <v>0.28096</v>
+        <v>0.29217</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>0.28408</v>
+        <v>0.28931</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>0.25704</v>
+        <v>0.26228</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>0.18735</v>
+        <v>0.19612</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>0.19969</v>
+        <v>0.20481</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="C108">
-        <v>0.20276</v>
+        <v>0.20604</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>0.2516</v>
+        <v>0.2563</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="C110">
-        <v>0.2161</v>
+        <v>0.21677</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>14</v>
       </c>
       <c r="C111">
-        <v>0.1863</v>
+        <v>0.18639</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>0.22096</v>
+        <v>0.23004</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="C113">
-        <v>0.17663</v>
+        <v>0.17618</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>15</v>
       </c>
       <c r="C114">
-        <v>0.20913</v>
+        <v>0.2093</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="C115">
-        <v>0.19679</v>
+        <v>0.20866</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="C116">
-        <v>0.18693</v>
+        <v>0.19103</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="C117">
-        <v>0.23062</v>
+        <v>0.23124</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>0.22051</v>
+        <v>0.22276</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="C119">
-        <v>0.20971</v>
+        <v>0.24147</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="C120">
-        <v>0.21746</v>
+        <v>0.22699</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.23508</v>
+        <v>0.23745</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.26486</v>
+        <v>0.27675</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="C123">
-        <v>0.25916</v>
+        <v>0.27104</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="C124">
-        <v>0.28922</v>
+        <v>0.31616</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="C125">
-        <v>0.30675</v>
+        <v>0.32612</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="C126">
-        <v>0.3</v>
+        <v>0.31698</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="C127">
-        <v>0.27447</v>
+        <v>0.29466</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>0.28897</v>
+        <v>0.30577</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="C129">
-        <v>0.30333</v>
+        <v>0.32111</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>17</v>
       </c>
       <c r="C130">
-        <v>0.1849</v>
+        <v>0.19191</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="C131">
-        <v>0.19406</v>
+        <v>0.19541</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>17</v>
       </c>
       <c r="C132">
-        <v>0.19752</v>
+        <v>0.19723</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="C133">
-        <v>0.22071</v>
+        <v>0.22241</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="C134">
-        <v>0.21285</v>
+        <v>0.21505</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="C135">
-        <v>0.16038</v>
+        <v>0.16296</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="C136">
-        <v>0.17007</v>
+        <v>0.17128</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="C137">
-        <v>0.18371</v>
+        <v>0.18461</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>18</v>
       </c>
       <c r="C138">
-        <v>0.12473</v>
+        <v>0.16455</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>18</v>
       </c>
       <c r="C139">
-        <v>0.27134</v>
+        <v>0.38787</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>0.14648</v>
+        <v>0.30751</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="C141">
-        <v>0.29473</v>
+        <v>0.30636</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>18</v>
       </c>
       <c r="C142">
-        <v>0.10773</v>
+        <v>0.15417</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="C143">
-        <v>0.22918</v>
+        <v>0.38763</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="C144">
-        <v>0.14573</v>
+        <v>0.2007</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>18</v>
       </c>
       <c r="C145">
-        <v>0.23118</v>
+        <v>0.29292</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>0.15788</v>
+        <v>0.17172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="C147">
-        <v>0.10065</v>
+        <v>0.10274</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>19</v>
       </c>
       <c r="C148">
-        <v>0.14439</v>
+        <v>0.14381</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>19</v>
       </c>
       <c r="C149">
-        <v>0.09970000000000001</v>
+        <v>0.09231</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>19</v>
       </c>
       <c r="C150">
-        <v>0.1573</v>
+        <v>0.16307</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="C151">
-        <v>0.19403</v>
+        <v>0.21314</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>0.18761</v>
+        <v>0.19648</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>19</v>
       </c>
       <c r="C153">
-        <v>0.20066</v>
+        <v>0.22941</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
